--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>日本語</t>
   </si>
@@ -869,9 +869,7 @@
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>40</v>
       </c>

--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>日本語</t>
   </si>
@@ -869,7 +869,9 @@
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
       </c>

--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9832A08-D20B-40D3-82D6-34840E8C13F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>日本語</t>
   </si>
@@ -79,58 +83,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~が
+    <t>~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 已成功加載！
+    <t>{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
+    <t>~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} è stato caricato correttamente!
+    <t>{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
+    <t>~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
+    <t>~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
+    <t>¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} bylo uspesne nacteno!
+    <t>{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
+    <t>~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har laddats in.
+    <t>{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
+    <t>~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
+    <t>~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -188,56 +192,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
+    <t>{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
+    <t>~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} Hat ein neues Update.
+    <t>{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
+    <t>{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} ma nowszą wersję.
+    <t>{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} existe uma nova atualização.
+    <t>{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene una última actualización.
+    <t>{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene la última actualización.
+    <t>{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
+    <t>{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har en ny uppdatering.
+    <t>{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -305,56 +309,109 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~今のバージョン~s~: {0}
+    <t>~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Current Version~s~: {0}
+    <t>~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
+    <t>~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versione attuale~s~: {0}
+    <t>~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versão Atual~s~:{0}
+    <t>~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
+    <t>~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
+    <t>~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
+    <t>~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
+  </si>
+  <si>
+    <t>CalloutCode4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~g~事案終了~s~
+現時点をもってパトロールに復帰せよ。</t>
+    <rPh sb="3" eb="5">
+      <t>ジアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>You're ~g~code4~s~.
+No further unit is required.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ErrorTooFar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遠すぎます。
+もっと近づいてください。</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Too far.
+Please get closer.</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,9 +443,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,15 +784,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -798,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -856,7 +921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -918,7 +983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -976,7 +1041,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1038,7 +1103,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1080,8 +1145,31 @@
         <v>96</v>
       </c>
     </row>
+    <row r="8" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>日本語</t>
   </si>
@@ -335,13 +335,35 @@
   <si>
     <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
+  </si>
+  <si>
+    <t>CalloutCode4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~g~事案終了~s~
+現時点をもってパトロールに復帰せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're ~g~code4~s~.
+No further unit is required.</t>
+  </si>
+  <si>
+    <t>ErrorTooFar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遠すぎます。
+もっと近づいてください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too far.
+Please get closer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -353,6 +375,13 @@
       <charset val="128"/>
       <color theme="1"/>
       <family val="3"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
@@ -377,13 +406,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,7 +757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
@@ -1080,6 +1112,28 @@
         <v>96</v>
       </c>
     </row>
+    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9832A08-D20B-40D3-82D6-34840E8C13F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -79,58 +83,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~が
+    <t>~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 已成功加載！
+    <t>{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
+    <t>~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} è stato caricato correttamente!
+    <t>{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
+    <t>~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
+    <t>~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
+    <t>¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} bylo uspesne nacteno!
+    <t>{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
+    <t>~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har laddats in.
+    <t>{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
+    <t>~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
+    <t>~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -188,56 +192,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
+    <t>{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
+    <t>~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} Hat ein neues Update.
+    <t>{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
+    <t>{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} ma nowszą wersję.
+    <t>{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} existe uma nova atualização.
+    <t>{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene una última actualización.
+    <t>{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene la última actualización.
+    <t>{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
+    <t>{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har en ny uppdatering.
+    <t>{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -305,85 +309,109 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~今のバージョン~s~: {0}
+    <t>~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Current Version~s~: {0}
+    <t>~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
+    <t>~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versione attuale~s~: {0}
+    <t>~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versão Atual~s~:{0}
+    <t>~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
+    <t>~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
+    <t>~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
+    <t>~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~g~事案終了~s~
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You're ~g~code4~s~.
+    <rPh sb="3" eb="5">
+      <t>ジアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>You're ~g~code4~s~.
 No further unit is required.</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ErrorTooFar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遠すぎます。
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遠すぎます。
 もっと近づいてください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Too far.
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Too far.
 Please get closer.</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <color theme="1"/>
-      <family val="2"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,12 +443,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,15 +784,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V10"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -830,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -888,7 +921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -950,7 +983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1008,7 +1041,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1070,7 +1103,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1112,7 +1145,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1123,7 +1156,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1135,7 +1168,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,14 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9832A08-D20B-40D3-82D6-34840E8C13F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -83,58 +79,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~が
+    <t xml:space="preserve">~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t>{0} 已成功加載！
+    <t xml:space="preserve">{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t>~b~{0}~s~ was successfully loaded!
+    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t>{0} è stato caricato correttamente!
+    <t xml:space="preserve">{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ zostało pomyślnie wczytane!
+    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ Carregou com sucesso!
+    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t>¡{0} se ha cargado exitosamente!
+    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t>{0} bylo uspesne nacteno!
+    <t xml:space="preserve">{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ blev indlæst!
+    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t>{0} har laddats in.
+    <t xml:space="preserve">{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ ladattu onnistuneesti
+    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ sėkmingai užkrovė!
+    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -192,56 +188,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t>{0} 有~y~ 最新版本 ~s~ ，
+    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t>~b~{0}~s~ has ~y~a newer update~s~.
+    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} Hat ein neues Update.
+    <t xml:space="preserve">{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t>{0} rilasciato nuovo aggiornamento.
+    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>{0} ma nowszą wersję.
+    <t xml:space="preserve">{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t>{0} existe uma nova atualização.
+    <t xml:space="preserve">{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} tiene una última actualización.
+    <t xml:space="preserve">{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t>{0} tiene la última actualización.
+    <t xml:space="preserve">{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t>{0} mas nejnovejsi aktualizaci. 
+    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t>{0} har en ny uppdatering.
+    <t xml:space="preserve">{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -309,109 +305,85 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t>~r~今のバージョン~s~: {0}
+    <t xml:space="preserve">~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Current Version~s~: {0}
+    <t xml:space="preserve">~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktuelle Version~s~: {0}
+    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versione attuale~s~: {0}
+    <t xml:space="preserve">~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versão Atual~s~:{0}
+    <t xml:space="preserve">~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t>~r~Şuanki Sürüm~s~: {0}
+    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktualni verze~s~: {0}
+    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Dabartinė versija~s~: {0}
+    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~g~事案終了~s~
+  </si>
+  <si>
+    <t xml:space="preserve">~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
-    <rPh sb="3" eb="5">
-      <t>ジアン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ゲンジテン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>フッキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>You're ~g~code4~s~.
+  </si>
+  <si>
+    <t xml:space="preserve">You're ~g~code4~s~.
 No further unit is required.</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ErrorTooFar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>遠すぎます。
+  </si>
+  <si>
+    <t xml:space="preserve">遠すぎます。
 もっと近づいてください。</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Too far.
+  </si>
+  <si>
+    <t xml:space="preserve">Too far.
 Please get closer.</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,12 +415,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,20 +756,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -863,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -921,7 +888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -983,7 +950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1041,7 +1008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1103,7 +1070,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1145,7 +1112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1156,7 +1123,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1168,8 +1135,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC08AD-1232-4EE9-9F9D-4CB85A99C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>日本語</t>
   </si>
@@ -79,58 +83,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~が
+    <t>~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 已成功加載！
+    <t>{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
+    <t>~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} è stato caricato correttamente!
+    <t>{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
+    <t>~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
+    <t>~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
+    <t>¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} bylo uspesne nacteno!
+    <t>{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
+    <t>~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har laddats in.
+    <t>{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
+    <t>~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
+    <t>~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -188,56 +192,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
+    <t>{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
+    <t>~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} Hat ein neues Update.
+    <t>{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
+    <t>{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} ma nowszą wersję.
+    <t>{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} existe uma nova atualização.
+    <t>{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene una última actualización.
+    <t>{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene la última actualización.
+    <t>{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
+    <t>{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har en ny uppdatering.
+    <t>{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -305,85 +309,114 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~今のバージョン~s~: {0}
+    <t>~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Current Version~s~: {0}
+    <t>~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
+    <t>~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versione attuale~s~: {0}
+    <t>~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versão Atual~s~:{0}
+    <t>~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
+    <t>~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
+    <t>~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
+    <t>~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~事案終了~s~
+    <t>~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">You're ~g~code4~s~.
+    <t>You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t xml:space="preserve">遠すぎます。
+    <t>遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Too far.
+    <t>Too far.
 Please get closer.</t>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,7 +453,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,15 +789,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -830,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -888,7 +926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -950,7 +988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1008,7 +1046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1070,7 +1108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1112,7 +1150,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1123,7 +1161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1134,8 +1172,31 @@
         <v>102</v>
       </c>
     </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9832A08-D20B-40D3-82D6-34840E8C13F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>日本語</t>
   </si>
@@ -83,58 +79,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~が
+    <t xml:space="preserve">~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t>{0} 已成功加載！
+    <t xml:space="preserve">{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t>~b~{0}~s~ was successfully loaded!
+    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t>{0} è stato caricato correttamente!
+    <t xml:space="preserve">{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ zostało pomyślnie wczytane!
+    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ Carregou com sucesso!
+    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t>¡{0} se ha cargado exitosamente!
+    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t>{0} bylo uspesne nacteno!
+    <t xml:space="preserve">{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ blev indlæst!
+    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t>{0} har laddats in.
+    <t xml:space="preserve">{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ ladattu onnistuneesti
+    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ sėkmingai užkrovė!
+    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -192,56 +188,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t>{0} 有~y~ 最新版本 ~s~ ，
+    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t>~b~{0}~s~ has ~y~a newer update~s~.
+    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} Hat ein neues Update.
+    <t xml:space="preserve">{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t>{0} rilasciato nuovo aggiornamento.
+    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>{0} ma nowszą wersję.
+    <t xml:space="preserve">{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t>{0} existe uma nova atualização.
+    <t xml:space="preserve">{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} tiene una última actualización.
+    <t xml:space="preserve">{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t>{0} tiene la última actualización.
+    <t xml:space="preserve">{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t>{0} mas nejnovejsi aktualizaci. 
+    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t>{0} har en ny uppdatering.
+    <t xml:space="preserve">{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -309,109 +305,97 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t>~r~今のバージョン~s~: {0}
+    <t xml:space="preserve">~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Current Version~s~: {0}
+    <t xml:space="preserve">~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktuelle Version~s~: {0}
+    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versione attuale~s~: {0}
+    <t xml:space="preserve">~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versão Atual~s~:{0}
+    <t xml:space="preserve">~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t>~r~Şuanki Sürüm~s~: {0}
+    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktualni verze~s~: {0}
+    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Dabartinė versija~s~: {0}
+    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>~g~事案終了~s~
+  </si>
+  <si>
+    <t xml:space="preserve">~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
-    <rPh sb="3" eb="5">
-      <t>ジアン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ゲンジテン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>フッキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>You're ~g~code4~s~.
+  </si>
+  <si>
+    <t xml:space="preserve">You're ~g~code4~s~.
 No further unit is required.</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ErrorTooFar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>遠すぎます。
+  </si>
+  <si>
+    <t xml:space="preserve">遠すぎます。
 もっと近づいてください。</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>チカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Too far.
+  </si>
+  <si>
+    <t xml:space="preserve">Too far.
 Please get closer.</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>女性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,12 +427,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,20 +768,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V13"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -863,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -921,7 +900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -983,7 +962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1041,7 +1020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1103,7 +1082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1145,7 +1124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1156,7 +1135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1167,9 +1146,24 @@
         <v>102</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC08AD-1232-4EE9-9F9D-4CB85A99C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>日本語</t>
   </si>
@@ -79,58 +83,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~が
+    <t>~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 已成功加載！
+    <t>{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
+    <t>~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} è stato caricato correttamente!
+    <t>{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
+    <t>~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
+    <t>~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
+    <t>¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} bylo uspesne nacteno!
+    <t>{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
+    <t>~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har laddats in.
+    <t>{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
+    <t>~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
+    <t>~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -188,56 +192,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
+    <t>{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
+    <t>~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} Hat ein neues Update.
+    <t>{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
+    <t>{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} ma nowszą wersję.
+    <t>{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} existe uma nova atualização.
+    <t>{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene una última actualización.
+    <t>{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene la última actualización.
+    <t>{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
+    <t>{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har en ny uppdatering.
+    <t>{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -305,97 +309,114 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~今のバージョン~s~: {0}
+    <t>~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Current Version~s~: {0}
+    <t>~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
+    <t>~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versione attuale~s~: {0}
+    <t>~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versão Atual~s~:{0}
+    <t>~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
+    <t>~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
+    <t>~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
+    <t>~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~事案終了~s~
+    <t>~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">You're ~g~code4~s~.
+    <t>You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t xml:space="preserve">遠すぎます。
+    <t>遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Too far.
+    <t>Too far.
 Please get closer.</t>
   </si>
   <si>
     <t>Male</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>男性</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,7 +453,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,15 +789,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V13"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -842,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -900,7 +926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -962,7 +988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1082,7 +1108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1124,7 +1150,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1135,7 +1161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1146,24 +1172,31 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>103</v>
       </c>
       <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
       </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,14 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC08AD-1232-4EE9-9F9D-4CB85A99C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -83,58 +79,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~が
+    <t xml:space="preserve">~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t>{0} 已成功加載！
+    <t xml:space="preserve">{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t>~b~{0}~s~ was successfully loaded!
+    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t>{0} è stato caricato correttamente!
+    <t xml:space="preserve">{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ zostało pomyślnie wczytane!
+    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ Carregou com sucesso!
+    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t>¡{0} se ha cargado exitosamente!
+    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t>{0} bylo uspesne nacteno!
+    <t xml:space="preserve">{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ blev indlæst!
+    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t>{0} har laddats in.
+    <t xml:space="preserve">{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ ladattu onnistuneesti
+    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ sėkmingai užkrovė!
+    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -192,56 +188,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t>{0} 有~y~ 最新版本 ~s~ ，
+    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t>~b~{0}~s~ has ~y~a newer update~s~.
+    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} Hat ein neues Update.
+    <t xml:space="preserve">{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t>{0} rilasciato nuovo aggiornamento.
+    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>{0} ma nowszą wersję.
+    <t xml:space="preserve">{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t>{0} existe uma nova atualização.
+    <t xml:space="preserve">{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} tiene una última actualización.
+    <t xml:space="preserve">{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t>{0} tiene la última actualización.
+    <t xml:space="preserve">{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t>{0} mas nejnovejsi aktualizaci. 
+    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t>{0} har en ny uppdatering.
+    <t xml:space="preserve">{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -309,114 +305,97 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t>~r~今のバージョン~s~: {0}
+    <t xml:space="preserve">~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Current Version~s~: {0}
+    <t xml:space="preserve">~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktuelle Version~s~: {0}
+    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versione attuale~s~: {0}
+    <t xml:space="preserve">~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versão Atual~s~:{0}
+    <t xml:space="preserve">~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t>~r~Şuanki Sürüm~s~: {0}
+    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktualni verze~s~: {0}
+    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Dabartinė versija~s~: {0}
+    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t>~g~事案終了~s~
+    <t xml:space="preserve">~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t>You're ~g~code4~s~.
+    <t xml:space="preserve">You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t>遠すぎます。
+    <t xml:space="preserve">遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t>Too far.
+    <t xml:space="preserve">Too far.
 Please get closer.</t>
   </si>
   <si>
     <t>Male</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男性</t>
   </si>
   <si>
     <t>Female</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,7 +432,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,20 +768,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -868,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -926,7 +900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -988,7 +962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1046,7 +1020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1108,7 +1082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1150,7 +1124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1161,7 +1135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1172,31 +1146,30 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC08AD-1232-4EE9-9F9D-4CB85A99C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -79,58 +83,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~が
+    <t>~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 已成功加載！
+    <t>{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
+    <t>~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} è stato caricato correttamente!
+    <t>{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
+    <t>~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
+    <t>~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
+    <t>¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} bylo uspesne nacteno!
+    <t>{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
+    <t>~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har laddats in.
+    <t>{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
+    <t>~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
+    <t>~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -188,56 +192,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
+    <t>{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
+    <t>~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} Hat ein neues Update.
+    <t>{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
+    <t>{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} ma nowszą wersję.
+    <t>{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} existe uma nova atualização.
+    <t>{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene una última actualización.
+    <t>{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene la última actualización.
+    <t>{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
+    <t>{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har en ny uppdatering.
+    <t>{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -305,97 +309,114 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~今のバージョン~s~: {0}
+    <t>~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Current Version~s~: {0}
+    <t>~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
+    <t>~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versione attuale~s~: {0}
+    <t>~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versão Atual~s~:{0}
+    <t>~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
+    <t>~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
+    <t>~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
+    <t>~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~事案終了~s~
+    <t>~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">You're ~g~code4~s~.
+    <t>You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t xml:space="preserve">遠すぎます。
+    <t>遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Too far.
+    <t>Too far.
 Please get closer.</t>
   </si>
   <si>
     <t>Male</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>男性</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,7 +453,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,15 +789,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V13"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -842,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -900,7 +926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -962,7 +988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1082,7 +1108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -1124,7 +1150,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1135,7 +1161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1146,30 +1172,31 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC08AD-1232-4EE9-9F9D-4CB85A99C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515E4E3-55F1-4267-857B-812FDC3653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>日本語</t>
   </si>
@@ -381,6 +381,79 @@
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoUpdateFailed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自動アップデート</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoUpdate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Auto Update</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~r~Auto update failed.~s~
+Please update ~y~manually~ś~.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~r~アップデートに失敗しました。~s~
+~y~手動~s~でアップデートしてください。</t>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoUpdateInProgress</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の~y~アップデート~s~を行っています。</t>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~y~Updating~s~ ~b~{0}~s~ now…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoUpdateRestart</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~ has been ~r~automatically updated~s~.
+Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の~r~自動アップデート~s~を行いました。
+~b~LSPDFR~s~を~y~再起動~s~してください。</t>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>サイキドウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -439,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -449,6 +522,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -790,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1194,6 +1270,50 @@
         <v>104</v>
       </c>
     </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC08AD-1232-4EE9-9F9D-4CB85A99C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>日本語</t>
   </si>
@@ -83,58 +79,62 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~が
+    <t xml:space="preserve">~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t>{0} 已成功加載！
+    <t xml:space="preserve">{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t>~b~{0}~s~ was successfully loaded!
+    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t>{0} è stato caricato correttamente!
+    <t xml:space="preserve">{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ zostało pomyślnie wczytane!
+    <t xml:space="preserve">정상적으로 로딩되었습니다.
+좋은 하루 보내세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ Carregou com sucesso!
+    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t>¡{0} se ha cargado exitosamente!
+    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t>{0} bylo uspesne nacteno!
+    <t xml:space="preserve">{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ blev indlæst!
+    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t>{0} har laddats in.
+    <t xml:space="preserve">{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ ladattu onnistuneesti
+    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ sėkmingai užkrovė!
+    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -159,6 +159,9 @@
     <t>Segnalazione</t>
   </si>
   <si>
+    <t>상황실</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -192,56 +195,59 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t>{0} 有~y~ 最新版本 ~s~ ，
+    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t>~b~{0}~s~ has ~y~a newer update~s~.
+    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} Hat ein neues Update.
+    <t xml:space="preserve">{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t>{0} rilasciato nuovo aggiornamento.
+    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>{0} ma nowszą wersję.
+    <t>최신 버전 업데이트가 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t>{0} existe uma nova atualização.
+    <t xml:space="preserve">{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} tiene una última actualización.
+    <t xml:space="preserve">{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t>{0} tiene la última actualización.
+    <t xml:space="preserve">{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t>{0} mas nejnovejsi aktualizaci. 
+    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t>{0} har en ny uppdatering.
+    <t xml:space="preserve">{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>Aggiornamento disponibile</t>
+  </si>
+  <si>
+    <t>버전 업데이트가 가능합니다!</t>
   </si>
   <si>
     <t>Dostępna aktualizacja!</t>
@@ -309,114 +318,168 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t>~r~今のバージョン~s~: {0}
+    <t xml:space="preserve">~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Current Version~s~: {0}
+    <t xml:space="preserve">~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktuelle Version~s~: {0}
+    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versione attuale~s~: {0}
+    <t xml:space="preserve">~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versão Atual~s~:{0}
+    <t xml:space="preserve">현재 버전
+최신 버전
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t>~r~Şuanki Sürüm~s~: {0}
+    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktualni verze~s~: {0}
+    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Dabartinė versija~s~: {0}
+    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t>~g~事案終了~s~
+    <t xml:space="preserve">~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t>You're ~g~code4~s~.
+    <t xml:space="preserve">You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
+    <t>상황종료- 코드 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jste ~g~pod kodem 4~s~.
+Neni potreba zadna dalsi jednotka.</t>
+  </si>
+  <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t>遠すぎます。
+    <t xml:space="preserve">遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t>Too far.
+    <t xml:space="preserve">Too far.
 Please get closer.</t>
   </si>
   <si>
+    <t>가까이 오세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prilis daleko.
+Prosim, priblizte se.</t>
+  </si>
+  <si>
     <t>Male</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>Muz</t>
   </si>
   <si>
     <t>Female</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>Zena</t>
+  </si>
+  <si>
+    <t>AutoUpdate</t>
+  </si>
+  <si>
+    <t>自動アップデート</t>
+  </si>
+  <si>
+    <t>Auto Update</t>
+  </si>
+  <si>
+    <t>AutoUpdateFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~アップデートに失敗しました。~s~
+~y~手動~s~でアップデートしてください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Auto update failed.~s~
+Please update ~y~manually~ś~.</t>
+  </si>
+  <si>
+    <t>AutoUpdateInProgress</t>
+  </si>
+  <si>
+    <t>~b~{0}~s~の~y~アップデート~s~を行っています。</t>
+  </si>
+  <si>
+    <t>~y~Updating~s~ ~b~{0}~s~ now…</t>
+  </si>
+  <si>
+    <t>AutoUpdateRestart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~の~r~自動アップデート~s~を行いました。
+~b~LSPDFR~s~を~y~再起動~s~してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ has been ~r~automatically updated~s~.
+Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,7 +516,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,20 +852,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V18"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -868,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -889,257 +947,267 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1147,56 +1215,123 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="40.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" ht="54" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515E4E3-55F1-4267-857B-812FDC3653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>日本語</t>
   </si>
@@ -79,62 +83,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~が
+    <t>~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 已成功加載！
+    <t>{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
+    <t>~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} è stato caricato correttamente!
+    <t>{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t xml:space="preserve">정상적으로 로딩되었습니다.
-좋은 하루 보내세요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
+    <t>~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
+    <t>~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
+    <t>¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} bylo uspesne nacteno!
+    <t>{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
+    <t>~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har laddats in.
+    <t>{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
+    <t>~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
+    <t>~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -159,9 +159,6 @@
     <t>Segnalazione</t>
   </si>
   <si>
-    <t>상황실</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -195,59 +192,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
+    <t>{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
+    <t>~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} Hat ein neues Update.
+    <t>{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
+    <t>{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>최신 버전 업데이트가 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0} ma nowszą wersję.
+    <t>{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} existe uma nova atualização.
+    <t>{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene una última actualización.
+    <t>{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene la última actualización.
+    <t>{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
+    <t>{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har en ny uppdatering.
+    <t>{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
   </si>
   <si>
     <t>Aggiornamento disponibile</t>
-  </si>
-  <si>
-    <t>버전 업데이트가 가능합니다!</t>
   </si>
   <si>
     <t>Dostępna aktualizacja!</t>
@@ -318,168 +309,187 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~今のバージョン~s~: {0}
+    <t>~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Current Version~s~: {0}
+    <t>~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
+    <t>~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versione attuale~s~: {0}
+    <t>~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">현재 버전
-최신 버전
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~r~Versão Atual~s~:{0}
+    <t>~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
+    <t>~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
+    <t>~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
+    <t>~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~事案終了~s~
+    <t>~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">You're ~g~code4~s~.
+    <t>You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
-    <t>상황종료- 코드 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jste ~g~pod kodem 4~s~.
-Neni potreba zadna dalsi jednotka.</t>
-  </si>
-  <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t xml:space="preserve">遠すぎます。
+    <t>遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Too far.
+    <t>Too far.
 Please get closer.</t>
   </si>
   <si>
-    <t>가까이 오세요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prilis daleko.
-Prosim, priblizte se.</t>
-  </si>
-  <si>
     <t>Male</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>男性</t>
-  </si>
-  <si>
-    <t>남성</t>
-  </si>
-  <si>
-    <t>Muz</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
-  </si>
-  <si>
-    <t>여성</t>
-  </si>
-  <si>
-    <t>Zena</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoUpdateFailed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自動アップデート</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdate</t>
-  </si>
-  <si>
-    <t>自動アップデート</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Auto Update</t>
-  </si>
-  <si>
-    <t>AutoUpdateFailed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~r~アップデートに失敗しました。~s~
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~r~Auto update failed.~s~
+Please update ~y~manually~ś~.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~r~アップデートに失敗しました。~s~
 ~y~手動~s~でアップデートしてください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~r~Auto update failed.~s~
-Please update ~y~manually~ś~.</t>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdateInProgress</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~b~{0}~s~の~y~アップデート~s~を行っています。</t>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~y~Updating~s~ ~b~{0}~s~ now…</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdateRestart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~{0}~s~の~r~自動アップデート~s~を行いました。
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~ has been ~r~automatically updated~s~.
+Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の~r~自動アップデート~s~を行いました。
 ~b~LSPDFR~s~を~y~再起動~s~してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~{0}~s~ has been ~r~automatically updated~s~.
-Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,9 +524,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,15 +865,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V18"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -926,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -947,267 +965,257 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1215,123 +1223,100 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="B13" t="s">
         <v>106</v>
       </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>113</v>
       </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="B17" t="s">
         <v>114</v>
       </c>
-      <c r="P12" t="s">
+      <c r="E17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="E13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" ht="54" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515E4E3-55F1-4267-857B-812FDC3653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>日本語</t>
   </si>
@@ -83,58 +79,62 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~が
+    <t xml:space="preserve">~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t>{0} 已成功加載！
+    <t xml:space="preserve">{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t>~b~{0}~s~ was successfully loaded!
+    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t>{0} è stato caricato correttamente!
+    <t xml:space="preserve">{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ zostało pomyślnie wczytane!
+    <t xml:space="preserve">정상적으로 로딩되었습니다.
+좋은 하루 보내세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ Carregou com sucesso!
+    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t>¡{0} se ha cargado exitosamente!
+    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t>{0} bylo uspesne nacteno!
+    <t xml:space="preserve">{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ blev indlæst!
+    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t>{0} har laddats in.
+    <t xml:space="preserve">{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ ladattu onnistuneesti
+    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ sėkmingai užkrovė!
+    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -159,6 +159,9 @@
     <t>Segnalazione</t>
   </si>
   <si>
+    <t>상황실</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -192,56 +195,59 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t>{0} 有~y~ 最新版本 ~s~ ，
+    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t>~b~{0}~s~ has ~y~a newer update~s~.
+    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} Hat ein neues Update.
+    <t xml:space="preserve">{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t>{0} rilasciato nuovo aggiornamento.
+    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>{0} ma nowszą wersję.
+    <t>최신 버전 업데이트가 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t>{0} existe uma nova atualização.
+    <t xml:space="preserve">{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} tiene una última actualización.
+    <t xml:space="preserve">{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t>{0} tiene la última actualización.
+    <t xml:space="preserve">{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t>{0} mas nejnovejsi aktualizaci. 
+    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t>{0} har en ny uppdatering.
+    <t xml:space="preserve">{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>Aggiornamento disponibile</t>
+  </si>
+  <si>
+    <t>버전 업데이트가 가능합니다!</t>
   </si>
   <si>
     <t>Dostępna aktualizacja!</t>
@@ -309,187 +318,168 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t>~r~今のバージョン~s~: {0}
+    <t xml:space="preserve">~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Current Version~s~: {0}
+    <t xml:space="preserve">~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktuelle Version~s~: {0}
+    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versione attuale~s~: {0}
+    <t xml:space="preserve">~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versão Atual~s~:{0}
+    <t xml:space="preserve">현재 버전
+최신 버전
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t>~r~Şuanki Sürüm~s~: {0}
+    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktualni verze~s~: {0}
+    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Dabartinė versija~s~: {0}
+    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t>~g~事案終了~s~
+    <t xml:space="preserve">~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t>You're ~g~code4~s~.
+    <t xml:space="preserve">You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
+    <t>상황종료- 코드 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jste ~g~pod kodem 4~s~.
+Neni potreba zadna dalsi jednotka.</t>
+  </si>
+  <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t>遠すぎます。
+    <t xml:space="preserve">遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t>Too far.
+    <t xml:space="preserve">Too far.
 Please get closer.</t>
   </si>
   <si>
+    <t>가까이 오세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prilis daleko.
+Prosim, priblizte se.</t>
+  </si>
+  <si>
     <t>Male</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>Muz</t>
   </si>
   <si>
     <t>Female</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>Zena</t>
+  </si>
+  <si>
+    <t>AutoUpdate</t>
+  </si>
+  <si>
+    <t>自動アップデート</t>
+  </si>
+  <si>
+    <t>Auto Update</t>
   </si>
   <si>
     <t>AutoUpdateFailed</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>自動アップデート</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AutoUpdate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Auto Update</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~r~Auto update failed.~s~
+  </si>
+  <si>
+    <t xml:space="preserve">~r~アップデートに失敗しました。~s~
+~y~手動~s~でアップデートしてください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Auto update failed.~s~
 Please update ~y~manually~ś~.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~r~アップデートに失敗しました。~s~
-~y~手動~s~でアップデートしてください。</t>
-    <rPh sb="10" eb="12">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdateInProgress</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~b~{0}~s~の~y~アップデート~s~を行っています。</t>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~y~Updating~s~ ~b~{0}~s~ now…</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdateRestart</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~b~{0}~s~ has been ~r~automatically updated~s~.
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~の~r~自動アップデート~s~を行いました。
+~b~LSPDFR~s~を~y~再起動~s~してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ has been ~r~automatically updated~s~.
 Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~b~{0}~s~の~r~自動アップデート~s~を行いました。
-~b~LSPDFR~s~を~y~再起動~s~してください。</t>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>サイキドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,12 +514,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,20 +852,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -944,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -965,257 +947,267 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1223,100 +1215,123 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="40.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" ht="27" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" ht="54" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515E4E3-55F1-4267-857B-812FDC3653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>日本語</t>
   </si>
@@ -83,58 +79,62 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~が
+    <t xml:space="preserve">~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t>{0} 已成功加載！
+    <t xml:space="preserve">{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t>~b~{0}~s~ was successfully loaded!
+    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t>{0} è stato caricato correttamente!
+    <t xml:space="preserve">{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ zostało pomyślnie wczytane!
+    <t xml:space="preserve">정상적으로 로딩되었습니다.
+좋은 하루 보내세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ Carregou com sucesso!
+    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t>¡{0} se ha cargado exitosamente!
+    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t>{0} bylo uspesne nacteno!
+    <t xml:space="preserve">{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ blev indlæst!
+    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t>{0} har laddats in.
+    <t xml:space="preserve">{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ ladattu onnistuneesti
+    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ sėkmingai užkrovė!
+    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -159,6 +159,9 @@
     <t>Segnalazione</t>
   </si>
   <si>
+    <t>상황실</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -192,56 +195,59 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t>{0} 有~y~ 最新版本 ~s~ ，
+    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t>~b~{0}~s~ has ~y~a newer update~s~.
+    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} Hat ein neues Update.
+    <t xml:space="preserve">{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t>{0} rilasciato nuovo aggiornamento.
+    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>{0} ma nowszą wersję.
+    <t>최신 버전 업데이트가 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t>{0} existe uma nova atualização.
+    <t xml:space="preserve">{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} tiene una última actualización.
+    <t xml:space="preserve">{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t>{0} tiene la última actualización.
+    <t xml:space="preserve">{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t>{0} mas nejnovejsi aktualizaci. 
+    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t>{0} har en ny uppdatering.
+    <t xml:space="preserve">{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>Aggiornamento disponibile</t>
+  </si>
+  <si>
+    <t>버전 업데이트가 가능합니다!</t>
   </si>
   <si>
     <t>Dostępna aktualizacja!</t>
@@ -309,187 +318,182 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t>~r~今のバージョン~s~: {0}
+    <t xml:space="preserve">~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Current Version~s~: {0}
+    <t xml:space="preserve">~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktuelle Version~s~: {0}
+    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versione attuale~s~: {0}
+    <t xml:space="preserve">~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versão Atual~s~:{0}
+    <t xml:space="preserve">현재 버전
+최신 버전
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t>~r~Şuanki Sürüm~s~: {0}
+    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktualni verze~s~: {0}
+    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Dabartinė versija~s~: {0}
+    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t>~g~事案終了~s~
+    <t xml:space="preserve">~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t>You're ~g~code4~s~.
+    <t xml:space="preserve">You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
+    <t>상황종료- 코드 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jste ~g~pod kodem 4~s~.
+Neni potreba zadna dalsi jednotka.</t>
+  </si>
+  <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t>遠すぎます。
+    <t xml:space="preserve">遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t>Too far.
+    <t xml:space="preserve">Too far.
 Please get closer.</t>
   </si>
   <si>
+    <t>가까이 오세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prilis daleko.
+Prosim, priblizte se.</t>
+  </si>
+  <si>
     <t>Male</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>Muz</t>
   </si>
   <si>
     <t>Female</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>Zena</t>
+  </si>
+  <si>
+    <t>AutoUpdate</t>
+  </si>
+  <si>
+    <t>自動アップデート</t>
+  </si>
+  <si>
+    <t>Auto Update</t>
+  </si>
+  <si>
+    <t>Automaticka aktualizace</t>
   </si>
   <si>
     <t>AutoUpdateFailed</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>自動アップデート</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AutoUpdate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Auto Update</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~r~Auto update failed.~s~
+  </si>
+  <si>
+    <t xml:space="preserve">~r~アップデートに失敗しました。~s~
+~y~手動~s~でアップデートしてください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Auto update failed.~s~
 Please update ~y~manually~ś~.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~r~アップデートに失敗しました。~s~
-~y~手動~s~でアップデートしてください。</t>
-    <rPh sb="10" eb="12">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Automaticka aktualizace selhala.~s~
+Aktualizujte prosim ~y~rucne~ś~.</t>
   </si>
   <si>
     <t>AutoUpdateInProgress</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~b~{0}~s~の~y~アップデート~s~を行っています。</t>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~y~Updating~s~ ~b~{0}~s~ now…</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~y~Aktualizuji~s~ ~b~{0}~s~ nyni…</t>
   </si>
   <si>
     <t>AutoUpdateRestart</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~b~{0}~s~ has been ~r~automatically updated~s~.
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~の~r~自動アップデート~s~を行いました。
+~b~LSPDFR~s~を~y~再起動~s~してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ has been ~r~automatically updated~s~.
 Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~b~{0}~s~の~r~自動アップデート~s~を行いました。
-~b~LSPDFR~s~を~y~再起動~s~してください。</t>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>サイキドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ byl ~r~automaticky aktualizovan~s~.
+Prosim ~y~restartujte~s~ ~b~LSPDFR~s~.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,12 +528,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,20 +866,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -944,7 +940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -965,257 +961,267 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1223,100 +1229,135 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="40.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="P15" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="P17" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" ht="54" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>117</v>
+        <v>132</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515E4E3-55F1-4267-857B-812FDC3653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>日本語</t>
   </si>
@@ -79,62 +83,58 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~が
+    <t>~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 已成功加載！
+    <t>{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
+    <t>~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} è stato caricato correttamente!
+    <t>{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t xml:space="preserve">정상적으로 로딩되었습니다.
-좋은 하루 보내세요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
+    <t>~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
+    <t>~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
+    <t>¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} bylo uspesne nacteno!
+    <t>{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
+    <t>~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har laddats in.
+    <t>{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
+    <t>~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
+    <t>~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -159,9 +159,6 @@
     <t>Segnalazione</t>
   </si>
   <si>
-    <t>상황실</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -195,59 +192,56 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
+    <t>{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
+    <t>~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} Hat ein neues Update.
+    <t>{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
+    <t>{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>최신 버전 업데이트가 있습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0} ma nowszą wersję.
+    <t>{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} existe uma nova atualização.
+    <t>{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene una última actualización.
+    <t>{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} tiene la última actualización.
+    <t>{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
+    <t>{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} har en ny uppdatering.
+    <t>{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
   </si>
   <si>
     <t>Aggiornamento disponibile</t>
-  </si>
-  <si>
-    <t>버전 업데이트가 가능합니다!</t>
   </si>
   <si>
     <t>Dostępna aktualizacja!</t>
@@ -318,182 +309,187 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~今のバージョン~s~: {0}
+    <t>~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Current Version~s~: {0}
+    <t>~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
+    <t>~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Versione attuale~s~: {0}
+    <t>~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">현재 버전
-최신 버전
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~r~Versão Atual~s~:{0}
+    <t>~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
+    <t>~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
+    <t>~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
+    <t>~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~事案終了~s~
+    <t>~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">You're ~g~code4~s~.
+    <t>You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
-    <t>상황종료- 코드 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jste ~g~pod kodem 4~s~.
-Neni potreba zadna dalsi jednotka.</t>
-  </si>
-  <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t xml:space="preserve">遠すぎます。
+    <t>遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t xml:space="preserve">Too far.
+    <t>Too far.
 Please get closer.</t>
   </si>
   <si>
-    <t>가까이 오세요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prilis daleko.
-Prosim, priblizte se.</t>
-  </si>
-  <si>
     <t>Male</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>男性</t>
-  </si>
-  <si>
-    <t>남성</t>
-  </si>
-  <si>
-    <t>Muz</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
-  </si>
-  <si>
-    <t>여성</t>
-  </si>
-  <si>
-    <t>Zena</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoUpdateFailed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自動アップデート</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdate</t>
-  </si>
-  <si>
-    <t>自動アップデート</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Auto Update</t>
-  </si>
-  <si>
-    <t>Automaticka aktualizace</t>
-  </si>
-  <si>
-    <t>AutoUpdateFailed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~r~アップデートに失敗しました。~s~
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~r~Auto update failed.~s~
+Please update ~y~manually~ś~.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~r~アップデートに失敗しました。~s~
 ~y~手動~s~でアップデートしてください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~r~Auto update failed.~s~
-Please update ~y~manually~ś~.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~r~Automaticka aktualizace selhala.~s~
-Aktualizujte prosim ~y~rucne~ś~.</t>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdateInProgress</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~b~{0}~s~の~y~アップデート~s~を行っています。</t>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~y~Updating~s~ ~b~{0}~s~ now…</t>
-  </si>
-  <si>
-    <t>~y~Aktualizuji~s~ ~b~{0}~s~ nyni…</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AutoUpdateRestart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~{0}~s~の~r~自動アップデート~s~を行いました。
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~ has been ~r~automatically updated~s~.
+Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~b~{0}~s~の~r~自動アップデート~s~を行いました。
 ~b~LSPDFR~s~を~y~再起動~s~してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~{0}~s~ has been ~r~automatically updated~s~.
-Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~b~{0}~s~ byl ~r~automaticky aktualizovan~s~.
-Prosim ~y~restartujte~s~ ~b~LSPDFR~s~.</t>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -528,9 +524,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,15 +865,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V18"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -940,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -961,267 +965,257 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1229,135 +1223,100 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="B13" t="s">
         <v>106</v>
       </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>113</v>
       </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="B17" t="s">
         <v>114</v>
       </c>
-      <c r="P12" t="s">
+      <c r="E17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="E13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="P16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" ht="54" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/General.xlsx
+++ b/ja/General.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515E4E3-55F1-4267-857B-812FDC3653E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>日本語</t>
   </si>
@@ -83,58 +79,62 @@
     <t>LoadMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~が
+    <t xml:space="preserve">~b~{0}~s~が
 正常にロードされました!
 ~g~ありがとうございます!~s~</t>
   </si>
   <si>
-    <t>{0} 已成功加載！
+    <t xml:space="preserve">{0} 已成功加載！
 感謝您的下載！</t>
   </si>
   <si>
-    <t>~b~{0}~s~ was successfully loaded!
+    <t xml:space="preserve">~b~{0}~s~ was successfully loaded!
 ~g~Thank you for playing!~s~</t>
   </si>
   <si>
     <t>{0} wurde erfolgreich geladen!</t>
   </si>
   <si>
-    <t>{0} è stato caricato correttamente!
+    <t xml:space="preserve">{0} è stato caricato correttamente!
 Grazie per aver giocato!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ zostało pomyślnie wczytane!
+    <t xml:space="preserve">정상적으로 로딩되었습니다.
+좋은 하루 보내세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ zostało pomyślnie wczytane!
 ~g~Dzięki za zagranie!~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ Carregou com sucesso!
+    <t xml:space="preserve">~b~{0}~s~ Carregou com sucesso!
 ~g~Obrigado por jogar!~s~</t>
   </si>
   <si>
-    <t>¡{0} se ha cargado exitosamente!
+    <t xml:space="preserve">¡{0} se ha cargado exitosamente!
 ¡Gracias por jugar!</t>
   </si>
   <si>
     <t>~b~{0}~s~ ~g~başarıyla aktifleştirildi,~s~ ~o~iyi oyunlar!~s~</t>
   </si>
   <si>
-    <t>{0} bylo uspesne nacteno!
+    <t xml:space="preserve">{0} bylo uspesne nacteno!
 Díky za hru!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ blev indlæst!
+    <t xml:space="preserve">~b~{0}~s~ blev indlæst!
 ~g~Tak for at spille!~s~</t>
   </si>
   <si>
-    <t>{0} har laddats in.
+    <t xml:space="preserve">{0} har laddats in.
 Tack för att du spelar!</t>
   </si>
   <si>
-    <t>~b~{0}~s~ ladattu onnistuneesti
+    <t xml:space="preserve">~b~{0}~s~ ladattu onnistuneesti
 ~g~Kiitos pelaamisesta~s~</t>
   </si>
   <si>
-    <t>~b~{0}~s~ sėkmingai užkrovė!
+    <t xml:space="preserve">~b~{0}~s~ sėkmingai užkrovė!
 ~g~Ačiū, kad žaidžiate!~s~</t>
   </si>
   <si>
@@ -159,6 +159,9 @@
     <t>Segnalazione</t>
   </si>
   <si>
+    <t>상황실</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -192,56 +195,59 @@
     <t>UpdateMessage</t>
   </si>
   <si>
-    <t>~b~{0}~s~の~y~最新アップデート~s~があります。
+    <t xml:space="preserve">~b~{0}~s~の~y~最新アップデート~s~があります。
 ~r~早急に更新してください。~s~</t>
   </si>
   <si>
-    <t>{0} 有~y~ 最新版本 ~s~ ，
+    <t xml:space="preserve">{0} 有~y~ 最新版本 ~s~ ，
 ~r~ 請更新此插件 ~s~ 。</t>
   </si>
   <si>
-    <t>~b~{0}~s~ has ~y~a newer update~s~.
+    <t xml:space="preserve">~b~{0}~s~ has ~y~a newer update~s~.
 ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} Hat ein neues Update.
+    <t xml:space="preserve">{0} Hat ein neues Update.
 Bitte update dein Plugin.</t>
   </si>
   <si>
-    <t>{0} rilasciato nuovo aggiornamento.
+    <t xml:space="preserve">{0} rilasciato nuovo aggiornamento.
  Si prega di aggiornare questo plugin.</t>
   </si>
   <si>
-    <t>{0} ma nowszą wersję.
+    <t>최신 버전 업데이트가 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} ma nowszą wersję.
 Proszę, zaktualizuj ten plugin.</t>
   </si>
   <si>
-    <t>{0} existe uma nova atualização.
+    <t xml:space="preserve">{0} existe uma nova atualização.
 Por favor, atualize o plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ has ~y~a newer update~s~. ~r~Please update this plugin!~s~</t>
   </si>
   <si>
-    <t>{0} tiene una última actualización.
+    <t xml:space="preserve">{0} tiene una última actualización.
 Por favor, actualiza este plugin.</t>
   </si>
   <si>
-    <t>{0} tiene la última actualización.
+    <t xml:space="preserve">{0} tiene la última actualización.
 Por favor, actualice este plugin.</t>
   </si>
   <si>
     <t>{0} adlı ihbar modunu güncelle, ~r~ihbar modu güncel değil~s~!</t>
   </si>
   <si>
-    <t>{0} mas nejnovejsi aktualizaci. 
+    <t xml:space="preserve">{0} mas nejnovejsi aktualizaci. 
 Aktualizujte prosim tento plugin.</t>
   </si>
   <si>
     <t>~b~{0}~s~ har ~y~en nyere opdatering~s~. ~r~Vær sød at opdatere dette plugin!~s~</t>
   </si>
   <si>
-    <t>{0} har en ny uppdatering.
+    <t xml:space="preserve">{0} har en ny uppdatering.
 Vänligen uppdatera detta plugin.</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>Aggiornamento disponibile</t>
+  </si>
+  <si>
+    <t>버전 업데이트가 가능합니다!</t>
   </si>
   <si>
     <t>Dostępna aktualizacja!</t>
@@ -309,187 +318,221 @@
     <t>UpdateVersion</t>
   </si>
   <si>
-    <t>~r~今のバージョン~s~: {0}
+    <t xml:space="preserve">~r~今のバージョン~s~: {0}
 ~g~最新版のバージョン~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Current Version~s~: {0}
+    <t xml:space="preserve">~r~Current Version~s~: {0}
 ~g~Latest Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktuelle Version~s~: {0}
+    <t xml:space="preserve">~r~Aktuelle Version~s~: {0}
 ~g~Vorherige Version~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versione attuale~s~: {0}
+    <t xml:space="preserve">~r~Versione attuale~s~: {0}
  ~g~Ultima versione~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Versão Atual~s~:{0}
+    <t xml:space="preserve">현재 버전
+최신 버전
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Versão Atual~s~:{0}
 ~g~Úlrima Versão~s~:{1}</t>
   </si>
   <si>
-    <t>~r~Şuanki Sürüm~s~: {0}
+    <t xml:space="preserve">~r~Şuanki Sürüm~s~: {0}
 ~g~Güncel Sürüm~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Aktualni verze~s~: {0}
+    <t xml:space="preserve">~r~Aktualni verze~s~: {0}
 ~g~Posledni verze~s~: {1}</t>
   </si>
   <si>
-    <t>~r~Dabartinė versija~s~: {0}
+    <t xml:space="preserve">~r~Dabartinė versija~s~: {0}
 ~g~Naujausia versija~s~: {1}</t>
   </si>
   <si>
     <t>CalloutCode4</t>
   </si>
   <si>
-    <t>~g~事案終了~s~
+    <t xml:space="preserve">~g~事案終了~s~
 現時点をもってパトロールに復帰せよ。</t>
   </si>
   <si>
-    <t>You're ~g~code4~s~.
+    <t xml:space="preserve">You're ~g~code4~s~.
 No further unit is required.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tu sei ~g~code4~s~.
+Non è richiesta alcuna ulteriore unità.</t>
+  </si>
+  <si>
+    <t>상황종료- 코드 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jste ~g~pod kodem 4~s~.
+Neni potreba zadna dalsi jednotka.</t>
+  </si>
+  <si>
     <t>ErrorTooFar</t>
   </si>
   <si>
-    <t>遠すぎます。
+    <t xml:space="preserve">遠すぎます。
 もっと近づいてください。</t>
   </si>
   <si>
-    <t>Too far.
+    <t xml:space="preserve">Too far.
 Please get closer.</t>
   </si>
   <si>
+    <t xml:space="preserve">Troppo lontano.
+Per favore, avvicinati.</t>
+  </si>
+  <si>
+    <t>가까이 오세요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prilis daleko.
+Prosim, priblizte se.</t>
+  </si>
+  <si>
     <t>Male</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>Uomo</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>Muz</t>
   </si>
   <si>
     <t>Female</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>Zena</t>
+  </si>
+  <si>
+    <t>AutoUpdate</t>
+  </si>
+  <si>
+    <t>自動アップデート</t>
+  </si>
+  <si>
+    <t>Auto Update</t>
+  </si>
+  <si>
+    <t>Aggiornamento automatico</t>
+  </si>
+  <si>
+    <t>자동 업데이트</t>
+  </si>
+  <si>
+    <t>Automaticka aktualizace</t>
   </si>
   <si>
     <t>AutoUpdateFailed</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>自動アップデート</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AutoUpdate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Auto Update</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~r~Auto update failed.~s~
+  </si>
+  <si>
+    <t xml:space="preserve">~r~アップデートに失敗しました。~s~
+~y~手動~s~でアップデートしてください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Auto update failed.~s~
 Please update ~y~manually~ś~.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~r~アップデートに失敗しました。~s~
-~y~手動~s~でアップデートしてください。</t>
-    <rPh sb="10" eb="12">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Aggiornamento Fallito</t>
+  </si>
+  <si>
+    <t>자동 업데이트 실패</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~r~Automaticka aktualizace selhala.~s~
+Aktualizujte prosim ~y~rucne~ś~.</t>
   </si>
   <si>
     <t>AutoUpdateInProgress</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~b~{0}~s~の~y~アップデート~s~を行っています。</t>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>~y~Updating~s~ ~b~{0}~s~ now…</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>~y~Aggiornamento~s~ ~b~{0}~s~ in corso...</t>
+  </si>
+  <si>
+    <t>자동 업데이트 진행중. . .</t>
+  </si>
+  <si>
+    <t>~y~Aktualizuji~s~ ~b~{0}~s~ nyni…</t>
   </si>
   <si>
     <t>AutoUpdateRestart</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~b~{0}~s~ has been ~r~automatically updated~s~.
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~の~r~自動アップデート~s~を行いました。
+~b~LSPDFR~s~を~y~再起動~s~してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ has been ~r~automatically updated~s~.
 Please ~y~restart~s~ ~b~LSPDFR~s~.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>~b~{0}~s~の~r~自動アップデート~s~を行いました。
-~b~LSPDFR~s~を~y~再起動~s~してください。</t>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>サイキドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ è stato ~r~aggiornato automaticamente ~s~.
+Per favore ~y~riavvia ~s~b~LSPDFR~s~.</t>
+  </si>
+  <si>
+    <t>자동 업데이트 재시작</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~b~{0}~s~ byl ~r~automaticky aktualizovan~s~.
+Prosim ~y~restartujte~s~ ~b~LSPDFR~s~.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,12 +567,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,20 +905,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="22" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -944,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -965,257 +1000,267 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1223,100 +1268,171 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="40.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" ht="54" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>117</v>
+        <v>142</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>